--- a/Base/Teams/Panthers/Target Depth Data.xlsx
+++ b/Base/Teams/Panthers/Target Depth Data.xlsx
@@ -427,22 +427,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="C2">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="D2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="C2">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="D2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F2">
         <v>3</v>

--- a/Base/Teams/Panthers/Target Depth Data.xlsx
+++ b/Base/Teams/Panthers/Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="C3">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="D3">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -529,19 +529,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>436</v>
+        <v>465</v>
       </c>
       <c r="C3">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="D3">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E3">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3">
         <v>5</v>

--- a/Base/Teams/Panthers/Target Depth Data.xlsx
+++ b/Base/Teams/Panthers/Target Depth Data.xlsx
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="C2">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="D2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>355</v>
+        <v>379</v>
       </c>
       <c r="C2">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="D2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F2">
         <v>3</v>

--- a/Base/Teams/Panthers/Target Depth Data.xlsx
+++ b/Base/Teams/Panthers/Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="C3">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="D3">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3">
         <v>7</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>465</v>
+        <v>487</v>
       </c>
       <c r="C3">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="D3">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>6</v>

--- a/Base/Teams/Panthers/Target Depth Data.xlsx
+++ b/Base/Teams/Panthers/Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="C3">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="D3">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3">
         <v>8</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>487</v>
+        <v>514</v>
       </c>
       <c r="C3">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="D3">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F3">
         <v>6</v>
